--- a/data-raw/ZonificacionZT1259 complete.xlsx
+++ b/data-raw/ZonificacionZT1259 complete.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/javier_tarrino_ortiz_upm_es/Documents/Documentos/Trabajo/Páez/Bases de datos/EM2018 MADRID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/soukhoa_mcmaster_ca/Documents/05. PhD Research/05_Madrid-ZBE-LEZ/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{F0E3EA1B-72AF-44CD-85F6-7BA03C107FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE920FCD-79B7-4FBC-8B04-3F92EFD283A0}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="8_{F0E3EA1B-72AF-44CD-85F6-7BA03C107FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC7A00A-2040-4E4D-9A02-10662DD9AD76}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZonificacionZT1259" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ZonificacionZT1259!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -4367,7 +4371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4498,6 +4502,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4800,7 +4812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4843,54 +4855,57 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4906,7 +4921,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5202,18 +5217,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1260"/>
+  <dimension ref="A1:G1260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5235,11 +5250,8 @@
       <c r="G1" t="s">
         <v>1445</v>
       </c>
-      <c r="J1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5308,7 +5320,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5354,7 +5366,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5377,7 +5389,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5400,7 +5412,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5423,7 +5435,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5446,7 +5458,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5469,7 +5481,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5538,7 +5550,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5561,7 +5573,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -34199,4 +34211,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB40081-9360-4E60-AD83-24B6EBC8756B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{C57515C4-B7B1-4792-B566-A7FD85EEDF62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-raw/ZonificacionZT1259 complete.xlsx
+++ b/data-raw/ZonificacionZT1259 complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/soukhoa_mcmaster_ca/Documents/05. PhD Research/05_Madrid-ZBE-LEZ/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="8_{F0E3EA1B-72AF-44CD-85F6-7BA03C107FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC7A00A-2040-4E4D-9A02-10662DD9AD76}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{F0E3EA1B-72AF-44CD-85F6-7BA03C107FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E197C9-DB3C-4BF6-A0A5-1C7455374D7D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1344" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZonificacionZT1259" sheetId="1" r:id="rId1"/>
@@ -5220,7 +5220,7 @@
   <dimension ref="A1:G1260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
